--- a/ESPN sports website/IPL/Sunrisers Hyderabad/Washington Sundar.xlsx
+++ b/ESPN sports website/IPL/Sunrisers Hyderabad/Washington Sundar.xlsx
@@ -480,31 +480,31 @@
         <v>Washington Sundar</v>
       </c>
       <c r="C3" t="str">
+        <v>40</v>
+      </c>
+      <c r="D3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E3" t="str">
+        <v>5</v>
+      </c>
+      <c r="F3" t="str">
         <v>2</v>
       </c>
-      <c r="D3" t="str">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0</v>
-      </c>
       <c r="G3" t="str">
-        <v>100.00</v>
+        <v>285.71</v>
       </c>
       <c r="H3" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I3" t="str">
         <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>May 01, 2022</v>
+        <v>March 29, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Kings won by 13 runs</v>
+        <v>Royals won by 61 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Washington Sundar</v>
       </c>
       <c r="C4" t="str">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D4" t="str">
         <v>14</v>
       </c>
       <c r="E4" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>285.71</v>
+        <v>128.57</v>
       </c>
       <c r="H4" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I4" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>March 29, 2022</v>
+        <v>April 04, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Royals won by 61 runs</v>
+        <v>Super Giants won by 12 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,10 +550,10 @@
         <v>Washington Sundar</v>
       </c>
       <c r="C5" t="str">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>128.57</v>
+        <v>100.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Mumbai Indians</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>May 17, 2022</v>
+        <v>May 01, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Sunrisers won by 3 runs</v>
+        <v>Super Kings won by 13 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Washington Sundar</v>
       </c>
       <c r="C6" t="str">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D6" t="str">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E6" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>131.57</v>
+        <v>128.57</v>
       </c>
       <c r="H6" t="str">
-        <v>Punjab Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I6" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>May 22, 2022</v>
+        <v>May 17, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
+        <v>Sunrisers won by 3 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Washington Sundar</v>
       </c>
       <c r="C7" t="str">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" t="str">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" t="str">
+        <v>3</v>
+      </c>
+      <c r="F7" t="str">
         <v>1</v>
       </c>
-      <c r="F7" t="str">
-        <v>0</v>
-      </c>
       <c r="G7" t="str">
-        <v>128.57</v>
+        <v>131.57</v>
       </c>
       <c r="H7" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J7" t="str">
-        <v>April 04, 2022</v>
+        <v>May 22, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Super Giants won by 12 runs</v>
+        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
       </c>
     </row>
     <row r="8">
